--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -323,6 +323,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -349,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,12 +443,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -669,15 +702,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="2" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,139 +1184,223 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14" t="n">
+        <v>6</v>
+      </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
+      <c r="J13" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14" t="n">
+        <v>13</v>
+      </c>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
+      <c r="O13" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14" t="n">
+        <v>18</v>
+      </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
+      <c r="T13" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14" t="n">
+        <v>21</v>
+      </c>
       <c r="W13" s="0"/>
       <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="Y13" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14" t="n">
+        <v>24</v>
+      </c>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
       <c r="AD13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
+      <c r="J14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
+      <c r="O14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
+      <c r="T14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="Y14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
       <c r="AD14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <f aca="false" t="array" ref="A15:A15">VLOOKUP(A14,$A$2:$H$10,8)</f>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="5" t="n">
+        <f aca="false" t="array" ref="E15:E15">VLOOKUP(E14,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
-      <c r="AC15" s="0"/>
+      <c r="F15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="5" t="n">
+        <f aca="false" t="array" ref="J15:J15">VLOOKUP(J14,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="K15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="5" t="n">
+        <f aca="false" t="array" ref="O15:O15">VLOOKUP(O14,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="5" t="n">
+        <f aca="false" t="array" ref="T15:T15">VLOOKUP(T14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="U15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="5" t="n">
+        <f aca="false" t="array" ref="Y15:Y15">VLOOKUP(Y14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="19"/>
       <c r="AD15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
+      <c r="E16" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="21" t="n">
+        <v>15</v>
+      </c>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
+      <c r="O16" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="21" t="n">
+        <v>20</v>
+      </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
+      <c r="T16" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="21" t="n">
+        <v>23</v>
+      </c>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="Y16" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="21" t="n">
+        <v>26</v>
+      </c>
       <c r="AB16" s="0"/>
-      <c r="AC16" s="0"/>
-      <c r="AD16" s="5"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="14" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
@@ -1292,7 +1411,7 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
@@ -1312,7 +1431,12 @@
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
-      <c r="AC17" s="0"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
@@ -1323,7 +1447,7 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
@@ -1343,7 +1467,17 @@
       <c r="Z18" s="0"/>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
-      <c r="AC18" s="0"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="5" t="n">
+        <f aca="false" t="array" ref="AD18:AD18">VLOOKUP(AD17,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AE18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -1354,27 +1488,46 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
+      <c r="O19" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14" t="n">
+        <v>19</v>
+      </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
+      <c r="T19" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14" t="n">
+        <v>26</v>
+      </c>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="0"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
-      <c r="AC19" s="0"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="21" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
@@ -1382,27 +1535,33 @@
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
+      <c r="O20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
+      <c r="T20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
+      <c r="AC20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
@@ -1410,26 +1569,47 @@
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5" t="n">
+        <f aca="false" t="array" ref="J21:J21">VLOOKUP(J20,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="K21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="5" t="n">
+        <f aca="false" t="array" ref="O21:O21">VLOOKUP(O20,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="P21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="5" t="n">
+        <f aca="false" t="array" ref="T21:T21">VLOOKUP(T20,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="U21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
       <c r="AC21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,19 +1619,31 @@
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
+      <c r="J22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="21" t="n">
+        <v>10</v>
+      </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
+      <c r="O22" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="21" t="n">
+        <v>19</v>
+      </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
+      <c r="T22" s="20" t="n">
+        <v>19</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="21" t="n">
+        <v>26</v>
+      </c>
       <c r="W22" s="0"/>
       <c r="X22" s="0"/>
       <c r="Y22" s="0"/>
@@ -1556,142 +1748,150 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
       <c r="Q35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="32"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="C39" s="32"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="C40" s="32"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="32"/>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="C42" s="32"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="C43" s="32"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="C44" s="32"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="32"/>
+      <c r="C45" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="T20:V20"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
@@ -1702,7 +1902,7 @@
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35 B15">
+  <conditionalFormatting sqref="B35 F15 K15 K21 P15 P21 U15 U21 Z15 AE18">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1934,9 +2134,9 @@
       <c r="S11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -2063,246 +2263,246 @@
       <c r="S18" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30"/>
-      <c r="B51" s="32" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32" t="s">
+      <c r="C51" s="35"/>
+      <c r="D51" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="31"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="34"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="34" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="31"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="34"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30"/>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="31"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="34"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
+      <c r="C54" s="35"/>
+      <c r="D54" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="31"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="34"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="34"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30"/>
-      <c r="B56" s="37" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="31"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="34"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="B57" s="37" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="31"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="34"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="31"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="34"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="31"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="34"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="31"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="34"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
-      <c r="B61" s="36" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="31"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="34"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30"/>
-      <c r="B62" s="39" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -323,6 +323,34 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -349,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,12 +450,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -669,17 +713,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12:AH22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="2" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="5" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,161 +1204,245 @@
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="n">
+      <c r="J13" s="13"/>
+      <c r="K13" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
+      <c r="N13" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14" t="n">
+        <v>13</v>
+      </c>
       <c r="Q13" s="0"/>
       <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
+      <c r="S13" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14" t="n">
+        <v>18</v>
+      </c>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
+      <c r="X13" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14" t="n">
+        <v>21</v>
+      </c>
       <c r="AA13" s="0"/>
       <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0"/>
+      <c r="AC13" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="14" t="n">
+        <v>24</v>
+      </c>
       <c r="AF13" s="0"/>
       <c r="AG13" s="0"/>
       <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="0"/>
+      <c r="AK13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="0"/>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
+      <c r="N14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
       <c r="Q14" s="0"/>
       <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
+      <c r="S14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
+      <c r="X14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
-      <c r="AC14" s="0"/>
-      <c r="AD14" s="0"/>
-      <c r="AE14" s="0"/>
+      <c r="AC14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="0"/>
       <c r="AG14" s="0"/>
       <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="5" t="n">
-        <f aca="false" t="array" ref="E15:E15">VLOOKUP(E14,$A$2:$H$10,8)</f>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="5" t="n">
+        <f aca="false" t="array" ref="I15:I15">VLOOKUP(I14,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="J15" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="K15" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
-      <c r="AC15" s="0"/>
-      <c r="AD15" s="0"/>
-      <c r="AE15" s="0"/>
-      <c r="AF15" s="0"/>
-      <c r="AG15" s="0"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="5" t="n">
+        <f aca="false" t="array" ref="N15:N15">VLOOKUP(N14,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="O15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="5" t="n">
+        <f aca="false" t="array" ref="S15:S15">VLOOKUP(S14,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="T15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="5" t="n">
+        <f aca="false" t="array" ref="X15:X15">VLOOKUP(X14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Y15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="5" t="n">
+        <f aca="false" t="array" ref="AC15:AC15">VLOOKUP(AC14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
       <c r="AH15" s="0"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="0"/>
+      <c r="AK15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="19" t="n">
+      <c r="J16" s="13"/>
+      <c r="K16" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="21" t="n">
+        <v>15</v>
+      </c>
       <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
+      <c r="S16" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" s="13"/>
+      <c r="U16" s="21" t="n">
+        <v>20</v>
+      </c>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
+      <c r="X16" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="21" t="n">
+        <v>23</v>
+      </c>
       <c r="AA16" s="0"/>
       <c r="AB16" s="0"/>
-      <c r="AC16" s="0"/>
-      <c r="AD16" s="0"/>
-      <c r="AE16" s="0"/>
+      <c r="AC16" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="21" t="n">
+        <v>26</v>
+      </c>
       <c r="AF16" s="0"/>
-      <c r="AG16" s="0"/>
-      <c r="AH16" s="0"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
@@ -1328,7 +1457,7 @@
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
@@ -1348,8 +1477,13 @@
       <c r="AD17" s="0"/>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
-      <c r="AH17" s="0"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
@@ -1364,7 +1498,7 @@
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
@@ -1385,7 +1519,17 @@
       <c r="AE18" s="0"/>
       <c r="AF18" s="0"/>
       <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
+      <c r="AH18" s="5" t="n">
+        <f aca="false" t="array" ref="AH18:AH18">VLOOKUP(AH17,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AI18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -1400,28 +1544,47 @@
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="Q19" s="0"/>
       <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
+      <c r="S19" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="14" t="n">
+        <v>19</v>
+      </c>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
+      <c r="X19" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14" t="n">
+        <v>26</v>
+      </c>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
       <c r="AC19" s="0"/>
       <c r="AD19" s="0"/>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
-      <c r="AG19" s="0"/>
-      <c r="AH19" s="0"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
@@ -1433,28 +1596,37 @@
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
+      <c r="S20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="0"/>
       <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
+      <c r="X20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
+      <c r="AG20" s="19"/>
       <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
@@ -1466,28 +1638,52 @@
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="5" t="n">
+        <f aca="false" t="array" ref="N21:N21">VLOOKUP(N20,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="O21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="5" t="n">
+        <f aca="false" t="array" ref="S21:S21">VLOOKUP(S20,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="T21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="5" t="n">
+        <f aca="false" t="array" ref="X21:X21">VLOOKUP(X20,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Y21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
       <c r="AG21" s="0"/>
       <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0"/>
@@ -1500,19 +1696,31 @@
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
+      <c r="N22" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="21" t="n">
+        <v>10</v>
+      </c>
       <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
+      <c r="S22" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="21" t="n">
+        <v>19</v>
+      </c>
       <c r="V22" s="0"/>
       <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
+      <c r="X22" s="20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="21" t="n">
+        <v>26</v>
+      </c>
       <c r="AA22" s="0"/>
       <c r="AB22" s="0"/>
       <c r="AC22" s="0"/>
@@ -1521,6 +1729,9 @@
       <c r="AF22" s="0"/>
       <c r="AG22" s="0"/>
       <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0"/>
@@ -1549,6 +1760,10 @@
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
       <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -1618,142 +1833,150 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
       <c r="Q35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="33"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="33"/>
+      <c r="C39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="33"/>
+      <c r="C40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="33"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="33"/>
+      <c r="C42" s="33"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="33"/>
+      <c r="C43" s="33"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="33"/>
+      <c r="C44" s="33"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="33"/>
+      <c r="C45" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="X20:Z20"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
@@ -1764,7 +1987,7 @@
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35 F15">
+  <conditionalFormatting sqref="B35 N15 S15 S21 X15 X21 AC15 AC21 AH15 AI18">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1786,8 +2009,8 @@
   </sheetPr>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="H12:AH22 A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1996,9 +2219,9 @@
       <c r="S11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -2125,246 +2348,246 @@
       <c r="S18" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30"/>
-      <c r="B51" s="32" t="s">
+      <c r="A51" s="34"/>
+      <c r="B51" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="31"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="35"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="34" t="s">
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="31"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30"/>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="31"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="35"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="31"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="35"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="35"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30"/>
-      <c r="B56" s="37" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="31"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="35"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="B57" s="37" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="31"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="31"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="35"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="31"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="35"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="31"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="35"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
-      <c r="B61" s="36" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="31"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30"/>
-      <c r="B62" s="39" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -326,6 +326,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -335,6 +342,13 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -370,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +449,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,14 +461,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,7 +477,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,17 +724,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF45"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ20" activeCellId="1" sqref="A9:C12 AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="2" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="2" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="5" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,24 +1123,35 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
@@ -1132,24 +1166,35 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -1160,10 +1205,6 @@
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
@@ -1181,226 +1222,263 @@
       <c r="AA12" s="0"/>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
-      <c r="AD12" s="5"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="J13" s="12" t="n">
         <v>0</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="12" t="n">
-        <v>6</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="12" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="W13" s="0"/>
       <c r="X13" s="0"/>
       <c r="Y13" s="12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z13" s="13"/>
       <c r="AA13" s="14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
-      <c r="AD13" s="5"/>
+      <c r="AD13" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0"/>
+      <c r="AI13" s="0"/>
+      <c r="AJ13" s="0"/>
+      <c r="AK13" s="0"/>
+      <c r="AL13" s="0"/>
+      <c r="AM13" s="0"/>
+      <c r="AN13" s="0"/>
+      <c r="AO13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="J14" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="15" t="s">
-        <v>6</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
       <c r="Y14" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
-      <c r="AD14" s="5"/>
+      <c r="AD14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
+      <c r="AJ14" s="0"/>
+      <c r="AK14" s="0"/>
+      <c r="AL14" s="0"/>
+      <c r="AM14" s="0"/>
+      <c r="AN14" s="0"/>
+      <c r="AO14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="5" t="n">
-        <f aca="false" t="array" ref="E15:E15">VLOOKUP(E14,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="F15" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
       <c r="J15" s="5" t="n">
         <f aca="false" t="array" ref="J15:J15">VLOOKUP(J14,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="K15" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="L15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="5" t="n">
         <f aca="false" t="array" ref="O15:O15">VLOOKUP(O14,$A$2:$H$10,8)</f>
-        <v>5</v>
-      </c>
-      <c r="P15" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="5" t="n">
         <f aca="false" t="array" ref="T15:T15">VLOOKUP(T14,$A$2:$H$10,8)</f>
-        <v>3</v>
-      </c>
-      <c r="U15" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="V15" s="17" t="n">
+      <c r="V15" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
       <c r="Y15" s="5" t="n">
         <f aca="false" t="array" ref="Y15:Y15">VLOOKUP(Y14,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Z15" s="16" t="n">
+      <c r="Z15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AA15" s="17" t="n">
+      <c r="AA15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="5" t="n">
+        <f aca="false" t="array" ref="AD15:AD15">VLOOKUP(AD14,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AE15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="5"/>
+      <c r="AF15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="0"/>
+      <c r="AJ15" s="0"/>
+      <c r="AK15" s="0"/>
+      <c r="AL15" s="0"/>
+      <c r="AM15" s="0"/>
+      <c r="AN15" s="0"/>
+      <c r="AO15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="J16" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="21" t="n">
+      <c r="K16" s="13"/>
+      <c r="L16" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20" t="n">
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="21" t="n">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="22" t="n">
         <v>15</v>
-      </c>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="21" t="n">
-        <v>20</v>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
-      <c r="T16" s="20" t="n">
+      <c r="T16" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="U16" s="13"/>
+      <c r="V16" s="22" t="n">
         <v>20</v>
-      </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="21" t="n">
-        <v>23</v>
       </c>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="20" t="n">
+      <c r="Y16" s="21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="22" t="n">
         <v>23</v>
       </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="21" t="n">
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="AB16" s="0"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="12" t="n">
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="14" t="n">
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="14" t="n">
         <v>35</v>
       </c>
+      <c r="AL16" s="0"/>
+      <c r="AM16" s="0"/>
+      <c r="AN16" s="0"/>
+      <c r="AO16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
@@ -1411,12 +1489,8 @@
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
       <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
+      <c r="N17" s="20"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
@@ -1431,12 +1505,21 @@
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="15" t="s">
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="0"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
@@ -1447,12 +1530,8 @@
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
       <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
+      <c r="N18" s="20"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
@@ -1467,17 +1546,26 @@
       <c r="Z18" s="0"/>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="5" t="n">
-        <f aca="false" t="array" ref="AD18:AD18">VLOOKUP(AD17,$A$2:$H$10,8)</f>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0"/>
+      <c r="AI18" s="5" t="n">
+        <f aca="false" t="array" ref="AI18:AI18">VLOOKUP(AI17,$A$2:$H$10,8)</f>
         <v>9</v>
       </c>
-      <c r="AE18" s="16" t="n">
+      <c r="AJ18" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="AF18" s="17" t="n">
+      <c r="AK18" s="18" t="n">
         <v>0</v>
       </c>
+      <c r="AL18" s="0"/>
+      <c r="AM18" s="0"/>
+      <c r="AN18" s="0"/>
+      <c r="AO18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -1488,46 +1576,51 @@
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="12" t="n">
+      <c r="M19" s="0"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="12" t="n">
         <v>6</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="12" t="n">
-        <v>10</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="U19" s="13"/>
       <c r="V19" s="14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="Y19" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="14" t="n">
+        <v>26</v>
+      </c>
       <c r="AB19" s="0"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="20" t="n">
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
+      <c r="AE19" s="0"/>
+      <c r="AF19" s="0"/>
+      <c r="AG19" s="0"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="21" t="n">
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="22" t="n">
         <v>35</v>
       </c>
+      <c r="AL19" s="0"/>
+      <c r="AM19" s="0"/>
+      <c r="AN19" s="0"/>
+      <c r="AO19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
@@ -1535,33 +1628,41 @@
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="15" t="s">
+      <c r="M20" s="0"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
+      <c r="Y20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
       <c r="AB20" s="0"/>
-      <c r="AC20" s="19"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
+      <c r="AL20" s="0"/>
+      <c r="AM20" s="0"/>
+      <c r="AN20" s="0"/>
+      <c r="AO20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
@@ -1569,48 +1670,56 @@
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="5" t="n">
-        <f aca="false" t="array" ref="J21:J21">VLOOKUP(J20,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="K21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="5" t="n">
         <f aca="false" t="array" ref="O21:O21">VLOOKUP(O20,$A$2:$H$10,8)</f>
-        <v>9</v>
-      </c>
-      <c r="P21" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" s="17" t="n">
+      <c r="Q21" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="5" t="n">
         <f aca="false" t="array" ref="T21:T21">VLOOKUP(T20,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="U21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="5" t="n">
+        <f aca="false" t="array" ref="Y21:Y21">VLOOKUP(Y20,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="U21" s="16" t="n">
+      <c r="Z21" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="V21" s="17" t="n">
+      <c r="AA21" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="0"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
+      <c r="AM21" s="0"/>
+      <c r="AN21" s="0"/>
+      <c r="AO21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0"/>
@@ -1618,39 +1727,47 @@
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="21" t="n">
-        <v>10</v>
-      </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
-      <c r="O22" s="20" t="n">
+      <c r="O22" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="22" t="n">
         <v>10</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="21" t="n">
-        <v>19</v>
       </c>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
-      <c r="T22" s="20" t="n">
+      <c r="T22" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="U22" s="13"/>
+      <c r="V22" s="22" t="n">
         <v>19</v>
-      </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="21" t="n">
-        <v>26</v>
       </c>
       <c r="W22" s="0"/>
       <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="Y22" s="21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="22" t="n">
+        <v>26</v>
+      </c>
       <c r="AB22" s="0"/>
       <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0"/>
@@ -1658,10 +1775,6 @@
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
@@ -1679,11 +1792,57 @@
       <c r="AA23" s="0"/>
       <c r="AB23" s="0"/>
       <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
+      <c r="AE23" s="0"/>
+      <c r="AF23" s="0"/>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0"/>
+      <c r="AI23" s="0"/>
+      <c r="AJ23" s="0"/>
+      <c r="AK23" s="0"/>
+      <c r="AL23" s="0"/>
+      <c r="AM23" s="0"/>
+      <c r="AN23" s="0"/>
+      <c r="AO23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -1748,150 +1907,150 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="34"/>
+      <c r="C38" s="34"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="A39" s="34"/>
+      <c r="C39" s="34"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="34"/>
+      <c r="C40" s="34"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="34"/>
+      <c r="C41" s="34"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="34"/>
+      <c r="C42" s="34"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="34"/>
+      <c r="C43" s="34"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="32"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="34"/>
+      <c r="C44" s="34"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="34"/>
+      <c r="C45" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E14:G14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="O14:Q14"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AI17:AK17"/>
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="T20:V20"/>
+    <mergeCell ref="Y20:AA20"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
@@ -1902,7 +2061,7 @@
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B35 F15 K15 K21 P15 P21 U15 U21 Z15 AE18">
+  <conditionalFormatting sqref="B35">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1922,10 +2081,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2045,46 +2204,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <v>0</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
@@ -2092,417 +2217,261 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <f aca="false" t="array" ref="A11:A11">VLOOKUP(A10,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="33"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35" t="s">
+      <c r="C51" s="37"/>
+      <c r="D51" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="34"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="36"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="33"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="37" t="s">
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="34"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="33"/>
-      <c r="B53" s="38" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="34"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="36"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="33"/>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35" t="s">
+      <c r="C54" s="37"/>
+      <c r="D54" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="34"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="36"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="33"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="34"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="36"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="33"/>
-      <c r="B56" s="40" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="34"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="36"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="33"/>
-      <c r="B57" s="40" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="34"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33"/>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="34"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33"/>
-      <c r="B59" s="40" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="34"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="36"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="33"/>
-      <c r="B60" s="38" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="34"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="36"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="34"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="36"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="33"/>
-      <c r="B62" s="42" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="33"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -323,6 +323,55 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -349,7 +398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,6 +463,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,12 +479,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -672,15 +749,16 @@
   <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="2" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="5" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="8" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="4" min="2" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="7" min="5" style="1" width="3.83"/>
+    <col collapsed="true" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,22 +1108,40 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="O9" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14" t="n">
+        <v>13</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="T9" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14" t="n">
+        <v>18</v>
+      </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="Y9" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="14" t="n">
+        <v>21</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
+      <c r="AD9" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -1070,24 +1166,32 @@
       <c r="L10" s="5"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
+      <c r="O10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
       <c r="AI10" s="0"/>
@@ -1111,26 +1215,54 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="5" t="n">
+        <f aca="false" t="array" ref="O11:O11">VLOOKUP(O10,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="P11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
+      <c r="T11" s="5" t="n">
+        <f aca="false" t="array" ref="T11:T11">VLOOKUP(T10,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="U11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="W11" s="0"/>
       <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="Y11" s="5" t="n">
+        <f aca="false" t="array" ref="Y11:Y11">VLOOKUP(Y10,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Z11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="AB11" s="0"/>
       <c r="AC11" s="0"/>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0"/>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0"/>
+      <c r="AD11" s="5" t="n">
+        <f aca="false" t="array" ref="AD11:AD11">VLOOKUP(AD10,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="AE11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="20"/>
       <c r="AH11" s="0"/>
       <c r="AI11" s="0"/>
       <c r="AJ11" s="0"/>
@@ -1144,26 +1276,42 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="23" t="n">
+        <v>15</v>
+      </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
+      <c r="T12" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="23" t="n">
+        <v>20</v>
+      </c>
       <c r="W12" s="0"/>
       <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="Y12" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="23" t="n">
+        <v>23</v>
+      </c>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
+      <c r="AD12" s="22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG12" s="24"/>
       <c r="AH12" s="0"/>
       <c r="AI12" s="0"/>
       <c r="AJ12" s="0"/>
@@ -1173,11 +1321,15 @@
       <c r="AN12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="12"/>
+      <c r="J13" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
+      <c r="L13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
@@ -1196,11 +1348,15 @@
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
-      <c r="AG13" s="0"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="0"/>
-      <c r="AI13" s="0"/>
-      <c r="AJ13" s="0"/>
-      <c r="AK13" s="0"/>
+      <c r="AI13" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="14" t="n">
+        <v>35</v>
+      </c>
       <c r="AL13" s="0"/>
       <c r="AM13" s="0"/>
       <c r="AN13" s="0"/>
@@ -1231,11 +1387,13 @@
       <c r="AD14" s="0"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
-      <c r="AG14" s="0"/>
-      <c r="AH14" s="0"/>
-      <c r="AI14" s="0"/>
-      <c r="AJ14" s="0"/>
-      <c r="AK14" s="0"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
       <c r="AL14" s="0"/>
       <c r="AM14" s="0"/>
       <c r="AN14" s="0"/>
@@ -1245,10 +1403,14 @@
         <f aca="false" t="array" ref="J15:J15">VLOOKUP(J14,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
+      <c r="K15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
       <c r="Q15" s="0"/>
@@ -1269,19 +1431,30 @@
       <c r="AF15" s="0"/>
       <c r="AG15" s="0"/>
       <c r="AH15" s="0"/>
-      <c r="AI15" s="0"/>
-      <c r="AJ15" s="0"/>
-      <c r="AK15" s="0"/>
+      <c r="AI15" s="5" t="n">
+        <f aca="false" t="array" ref="AI15:AI15">VLOOKUP(AI14,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AJ15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="AL15" s="0"/>
       <c r="AM15" s="0"/>
       <c r="AN15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="18"/>
+      <c r="J16" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="19"/>
+      <c r="L16" s="23" t="n">
+        <v>6</v>
+      </c>
       <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
+      <c r="N16" s="21"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
@@ -1301,10 +1474,14 @@
       <c r="AE16" s="0"/>
       <c r="AF16" s="0"/>
       <c r="AG16" s="0"/>
-      <c r="AH16" s="0"/>
-      <c r="AI16" s="0"/>
-      <c r="AJ16" s="0"/>
-      <c r="AK16" s="0"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="23" t="n">
+        <v>35</v>
+      </c>
       <c r="AL16" s="0"/>
       <c r="AM16" s="0"/>
       <c r="AN16" s="0"/>
@@ -1314,27 +1491,39 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14" t="n">
+        <v>10</v>
+      </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
+      <c r="T17" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14" t="n">
+        <v>19</v>
+      </c>
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="Y17" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="14" t="n">
+        <v>26</v>
+      </c>
       <c r="AB17" s="0"/>
       <c r="AC17" s="0"/>
       <c r="AD17" s="0"/>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
       <c r="AG17" s="0"/>
-      <c r="AH17" s="0"/>
+      <c r="AH17" s="21"/>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="0"/>
@@ -1347,27 +1536,33 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="21"/>
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="0"/>
@@ -1381,19 +1576,40 @@
       <c r="C19" s="5"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
+      <c r="O19" s="5" t="n">
+        <f aca="false" t="array" ref="O19:O19">VLOOKUP(O18,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="P19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
+      <c r="T19" s="5" t="n">
+        <f aca="false" t="array" ref="T19:T19">VLOOKUP(T18,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="U19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="Y19" s="5" t="n">
+        <f aca="false" t="array" ref="Y19:Y19">VLOOKUP(Y18,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Z19" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="AB19" s="0"/>
       <c r="AC19" s="0"/>
       <c r="AD19" s="0"/>
@@ -1411,19 +1627,31 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
+      <c r="O20" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="23" t="n">
+        <v>10</v>
+      </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
+      <c r="T20" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" s="13"/>
+      <c r="V20" s="23" t="n">
+        <v>19</v>
+      </c>
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
+      <c r="Y20" s="22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="23" t="n">
+        <v>26</v>
+      </c>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
@@ -1624,142 +1852,150 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="36"/>
+      <c r="C40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="36"/>
+      <c r="C41" s="36"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="36"/>
+      <c r="C42" s="36"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="36"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="36"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="36"/>
+      <c r="C45" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="AI14:AK14"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
@@ -1932,255 +2168,255 @@
         <f aca="false" t="array" ref="A11:A11">VLOOKUP(A10,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30"/>
-      <c r="B51" s="32" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="31"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="34" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="31"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30"/>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="31"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
+      <c r="C54" s="39"/>
+      <c r="D54" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="31"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="38"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="38"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30"/>
-      <c r="B56" s="37" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="31"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="38"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="B57" s="37" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="31"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="38"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="31"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="38"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="31"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="38"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="31"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="38"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
-      <c r="B61" s="36" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="31"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="38"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="30"/>
-      <c r="B62" s="39" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -331,9 +331,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -345,21 +345,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
+      <left/>
+      <right style="thin"/>
       <top/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom/>
@@ -369,7 +362,7 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -398,7 +391,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,14 +452,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,18 +476,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,10 +496,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,6 +534,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -746,19 +755,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R14" activeCellId="0" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="2" max="4" min="2" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="7" min="5" style="1" width="3.83"/>
-    <col collapsed="true" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="2" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,24 +913,33 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -946,24 +962,33 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -986,24 +1011,33 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -1026,24 +1060,33 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -1066,24 +1109,33 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -1106,8 +1158,8 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
       <c r="O9" s="12" t="n">
         <v>6</v>
       </c>
@@ -1115,8 +1167,8 @@
       <c r="Q9" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
       <c r="T9" s="12" t="n">
         <v>13</v>
       </c>
@@ -1124,8 +1176,8 @@
       <c r="V9" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
       <c r="Y9" s="12" t="n">
         <v>18</v>
       </c>
@@ -1133,8 +1185,8 @@
       <c r="AA9" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
       <c r="AD9" s="12" t="n">
         <v>21</v>
       </c>
@@ -1142,6 +1194,13 @@
       <c r="AF9" s="14" t="n">
         <v>24</v>
       </c>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -1165,33 +1224,33 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="15" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="15" t="s">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="15" t="s">
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="15" t="s">
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0"/>
       <c r="AI10" s="0"/>
@@ -1199,7 +1258,6 @@
       <c r="AK10" s="0"/>
       <c r="AL10" s="0"/>
       <c r="AM10" s="0"/>
-      <c r="AN10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
@@ -1214,8 +1272,8 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="5" t="n">
         <f aca="false" t="array" ref="O11:O11">VLOOKUP(O10,$A$2:$H$10,8)</f>
         <v>7</v>
@@ -1269,56 +1327,54 @@
       <c r="AK11" s="0"/>
       <c r="AL11" s="0"/>
       <c r="AM11" s="0"/>
-      <c r="AN11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22" t="n">
+      <c r="M12" s="17"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="21" t="n">
         <v>8</v>
       </c>
       <c r="P12" s="13"/>
-      <c r="Q12" s="23" t="n">
+      <c r="Q12" s="22" t="n">
         <v>15</v>
       </c>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
-      <c r="T12" s="22" t="n">
+      <c r="T12" s="21" t="n">
         <v>15</v>
       </c>
       <c r="U12" s="13"/>
-      <c r="V12" s="23" t="n">
+      <c r="V12" s="22" t="n">
         <v>20</v>
       </c>
       <c r="W12" s="0"/>
       <c r="X12" s="0"/>
-      <c r="Y12" s="22" t="n">
+      <c r="Y12" s="21" t="n">
         <v>20</v>
       </c>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="23" t="n">
+      <c r="AA12" s="22" t="n">
         <v>23</v>
       </c>
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
-      <c r="AD12" s="22" t="n">
+      <c r="AD12" s="21" t="n">
         <v>23</v>
       </c>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="23" t="n">
+      <c r="AF12" s="22" t="n">
         <v>26</v>
       </c>
-      <c r="AG12" s="24"/>
+      <c r="AG12" s="17"/>
       <c r="AH12" s="0"/>
       <c r="AI12" s="0"/>
       <c r="AJ12" s="0"/>
       <c r="AK12" s="0"/>
       <c r="AL12" s="0"/>
       <c r="AM12" s="0"/>
-      <c r="AN12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="12" t="n">
@@ -1328,8 +1384,8 @@
       <c r="L13" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
@@ -1348,8 +1404,8 @@
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="0"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="15"/>
       <c r="AI13" s="12" t="n">
         <v>26</v>
       </c>
@@ -1359,14 +1415,13 @@
       </c>
       <c r="AL13" s="0"/>
       <c r="AM13" s="0"/>
-      <c r="AN13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
@@ -1387,16 +1442,15 @@
       <c r="AD14" s="0"/>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="15" t="s">
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
       <c r="AL14" s="0"/>
       <c r="AM14" s="0"/>
-      <c r="AN14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="5" t="n">
@@ -1409,8 +1463,8 @@
       <c r="L15" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="21"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
       <c r="Q15" s="0"/>
@@ -1443,18 +1497,17 @@
       </c>
       <c r="AL15" s="0"/>
       <c r="AM15" s="0"/>
-      <c r="AN15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="21" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="23" t="n">
+      <c r="L16" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="M16" s="0"/>
-      <c r="N16" s="21"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
@@ -1474,24 +1527,23 @@
       <c r="AE16" s="0"/>
       <c r="AF16" s="0"/>
       <c r="AG16" s="0"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="22" t="n">
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="21" t="n">
         <v>26</v>
       </c>
       <c r="AJ16" s="13"/>
-      <c r="AK16" s="23" t="n">
+      <c r="AK16" s="22" t="n">
         <v>35</v>
       </c>
       <c r="AL16" s="0"/>
       <c r="AM16" s="0"/>
-      <c r="AN16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="21"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="12" t="n">
         <v>6</v>
       </c>
@@ -1523,52 +1575,50 @@
       <c r="AE17" s="0"/>
       <c r="AF17" s="0"/>
       <c r="AG17" s="0"/>
-      <c r="AH17" s="21"/>
+      <c r="AH17" s="25"/>
       <c r="AI17" s="0"/>
       <c r="AJ17" s="0"/>
       <c r="AK17" s="0"/>
       <c r="AL17" s="0"/>
       <c r="AM17" s="0"/>
-      <c r="AN17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="15" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="15" t="s">
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="15" t="s">
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="21"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="25"/>
       <c r="AI18" s="0"/>
       <c r="AJ18" s="0"/>
       <c r="AK18" s="0"/>
       <c r="AL18" s="0"/>
       <c r="AM18" s="0"/>
-      <c r="AN18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
@@ -1622,34 +1672,33 @@
       <c r="AK19" s="0"/>
       <c r="AL19" s="0"/>
       <c r="AM19" s="0"/>
-      <c r="AN19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
-      <c r="O20" s="22" t="n">
+      <c r="O20" s="21" t="n">
         <v>6</v>
       </c>
       <c r="P20" s="13"/>
-      <c r="Q20" s="23" t="n">
+      <c r="Q20" s="22" t="n">
         <v>10</v>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
-      <c r="T20" s="22" t="n">
+      <c r="T20" s="21" t="n">
         <v>10</v>
       </c>
       <c r="U20" s="13"/>
-      <c r="V20" s="23" t="n">
+      <c r="V20" s="22" t="n">
         <v>19</v>
       </c>
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
-      <c r="Y20" s="22" t="n">
+      <c r="Y20" s="21" t="n">
         <v>19</v>
       </c>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="23" t="n">
+      <c r="AA20" s="22" t="n">
         <v>26</v>
       </c>
       <c r="AB20" s="0"/>
@@ -1664,7 +1713,6 @@
       <c r="AK20" s="0"/>
       <c r="AL20" s="0"/>
       <c r="AM20" s="0"/>
-      <c r="AN20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M21" s="0"/>
@@ -1694,7 +1742,6 @@
       <c r="AK21" s="0"/>
       <c r="AL21" s="0"/>
       <c r="AM21" s="0"/>
-      <c r="AN21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M22" s="0"/>
@@ -1724,7 +1771,6 @@
       <c r="AK22" s="0"/>
       <c r="AL22" s="0"/>
       <c r="AM22" s="0"/>
-      <c r="AN22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M23" s="0"/>
@@ -1754,40 +1800,11 @@
       <c r="AK23" s="0"/>
       <c r="AL23" s="0"/>
       <c r="AM23" s="0"/>
-      <c r="AN23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="0"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0"/>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
-      <c r="AB24" s="0"/>
-      <c r="AC24" s="0"/>
-      <c r="AD24" s="0"/>
-      <c r="AE24" s="0"/>
-      <c r="AF24" s="0"/>
-      <c r="AG24" s="0"/>
-      <c r="AH24" s="0"/>
-      <c r="AI24" s="0"/>
-      <c r="AJ24" s="0"/>
-      <c r="AK24" s="0"/>
-      <c r="AL24" s="0"/>
-      <c r="AM24" s="0"/>
-      <c r="AN24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -1852,136 +1869,136 @@
       <c r="AD31" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="29" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="29" t="s">
+      <c r="R35" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="35"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="35"/>
+      <c r="C39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="35"/>
+      <c r="C40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="35"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="36"/>
-      <c r="C42" s="36"/>
+      <c r="A42" s="35"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="A43" s="35"/>
+      <c r="C43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36"/>
-      <c r="C44" s="36"/>
+      <c r="A44" s="35"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="36"/>
-      <c r="C45" s="36"/>
+      <c r="A45" s="35"/>
+      <c r="C45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2026,10 +2043,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2154,275 +2171,437 @@
         <v>0</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="P9" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <f aca="false" t="array" ref="A11:A11">VLOOKUP(A10,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <f aca="false" t="array" ref="F11:F11">VLOOKUP(F10,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false" t="array" ref="K11:K11">VLOOKUP(K10,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <f aca="false" t="array" ref="P11:P11">VLOOKUP(P10,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="F12" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="P12" s="21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="22" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="39"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="39"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="39"/>
+      <c r="F15" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="39"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="5" t="n">
+        <f aca="false" t="array" ref="F17:F17">VLOOKUP(F16,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39" t="s">
+      <c r="A51" s="41"/>
+      <c r="B51" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="38"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="41" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="38"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="42" t="s">
+      <c r="A53" s="41"/>
+      <c r="B53" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="38"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="42"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39" t="s">
+      <c r="C54" s="43"/>
+      <c r="D54" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="38"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="38"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="44" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="38"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="38"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="41"/>
+      <c r="B58" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="38"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="38"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="42" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="38"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="43" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="38"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="42"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="46" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="F52:J52"/>
     <mergeCell ref="C56:K56"/>
@@ -2437,7 +2616,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B11 G11 G17 L11 Q11">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="47">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -154,16 +154,26 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0\ %"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -353,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -467,6 +477,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top style="hair"/>
@@ -506,7 +523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,6 +784,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -775,11 +800,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1098,7 +1123,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2360,7 +2385,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2980,12 +3005,14 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="11" style="1" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,6 +3030,15 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="65" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3027,6 +3063,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="65" t="n">
+        <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -3047,6 +3093,16 @@
       <c r="H3" s="2" t="n">
         <v>11</v>
       </c>
+      <c r="I3" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="65" t="n">
+        <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -3065,6 +3121,16 @@
       <c r="H4" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="I4" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="65" t="n">
+        <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -3083,6 +3149,16 @@
       <c r="H5" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="I5" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="65" t="n">
+        <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -3101,6 +3177,16 @@
       <c r="H6" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="I6" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="65" t="n">
+        <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -3119,6 +3205,16 @@
       <c r="H7" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="I7" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="65" t="n">
+        <f aca="false">ROUNDUP(H7/(I7*J7),0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -3137,6 +3233,16 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="65" t="n">
+        <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
         <v>9</v>
       </c>
     </row>
@@ -3182,11 +3288,11 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="50"/>
       <c r="P12" s="22" t="s">
         <v>17</v>
@@ -3220,7 +3326,7 @@
         <f aca="false">P11-H11</f>
         <v>4</v>
       </c>
-      <c r="O13" s="66"/>
+      <c r="O13" s="68"/>
       <c r="P13" s="25" t="n">
         <f aca="false">VLOOKUP(P12,$A$2:$H$8,8)</f>
         <v>9</v>
@@ -3265,7 +3371,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="67"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="34"/>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
@@ -3401,7 +3507,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="34"/>
-      <c r="D24" s="68"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="50"/>
       <c r="F24" s="22" t="s">
         <v>3</v>
@@ -3416,7 +3522,7 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="49"/>
-      <c r="O24" s="69"/>
+      <c r="O24" s="71"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="25" t="n">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Personen</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="Y18:Z18 K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2385,7 +2388,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="Y18:Z18 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3005,7 +3008,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="Z18" activeCellId="0" sqref="Y18:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3041,6 +3044,9 @@
       <c r="K1" s="65" t="s">
         <v>3</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -3302,7 +3308,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="n">
-        <f aca="false">VLOOKUP(A12,$A$2:$H$8,8)</f>
+        <f aca="false">VLOOKUP(A12,$A$2:$K$8,11)</f>
         <v>2</v>
       </c>
       <c r="B13" s="26" t="n">
@@ -3315,7 +3321,7 @@
       </c>
       <c r="D13" s="51"/>
       <c r="F13" s="25" t="n">
-        <f aca="false">VLOOKUP(F12,$A$2:$H$6,8)</f>
+        <f aca="false">VLOOKUP(F12,$A$2:$K$8,11)</f>
         <v>11</v>
       </c>
       <c r="G13" s="26" t="n">
@@ -3328,7 +3334,7 @@
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="25" t="n">
-        <f aca="false">VLOOKUP(P12,$A$2:$H$8,8)</f>
+        <f aca="false">VLOOKUP(P12,$A$2:$K$8,11)</f>
         <v>9</v>
       </c>
       <c r="Q13" s="26" t="n">
@@ -3428,7 +3434,7 @@
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="34"/>
       <c r="F19" s="25" t="n">
-        <f aca="false">VLOOKUP(F18,$A$2:$H$6,8)</f>
+        <f aca="false">VLOOKUP(F18,$A$2:$K$8,11)</f>
         <v>4</v>
       </c>
       <c r="G19" s="26" t="n">
@@ -3440,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="25" t="n">
-        <f aca="false">VLOOKUP(K18,$A$2:$H$6,8)</f>
+        <f aca="false">VLOOKUP(K18,$A$2:$K$8,11)</f>
         <v>3</v>
       </c>
       <c r="L19" s="26" t="n">
@@ -3526,7 +3532,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="25" t="n">
-        <f aca="false">VLOOKUP(F24,$A$2:$H$6,8)</f>
+        <f aca="false">VLOOKUP(F24,$A$2:$K$8,11)</f>
         <v>8</v>
       </c>
       <c r="G25" s="26" t="n">
@@ -3538,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="25" t="n">
-        <f aca="false">VLOOKUP(K24,$A$2:$H$8,8)</f>
+        <f aca="false">VLOOKUP(K24,$A$2:$K$8,11)</f>
         <v>7</v>
       </c>
       <c r="L25" s="26" t="n">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übung 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -1174,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1652,34 +1652,58 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13" t="n">
+        <v>13</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11" t="n">
+        <v>13</v>
+      </c>
       <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="13" t="n">
+        <v>18</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="11" t="n">
+        <v>18</v>
+      </c>
       <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="R13" s="13" t="n">
+        <v>21</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="11"/>
+      <c r="U13" s="11" t="n">
+        <v>21</v>
+      </c>
       <c r="V13" s="12"/>
-      <c r="W13" s="13"/>
+      <c r="W13" s="13" t="n">
+        <v>24</v>
+      </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="11"/>
+      <c r="Z13" s="11" t="n">
+        <v>26</v>
+      </c>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="13"/>
+      <c r="AB13" s="13" t="n">
+        <v>35</v>
+      </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
     </row>
@@ -1731,75 +1755,123 @@
       <c r="A15" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="4"/>
       <c r="F15" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
+      <c r="Q15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
+      <c r="V15" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="19"/>
+      <c r="AA15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
+      <c r="A16" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="n">
+        <v>6</v>
+      </c>
       <c r="D16" s="24"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22" t="n">
+        <v>8</v>
+      </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="23" t="n">
+        <v>15</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="22" t="n">
+        <v>15</v>
+      </c>
       <c r="L16" s="12"/>
-      <c r="M16" s="23"/>
+      <c r="M16" s="23" t="n">
+        <v>20</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="22"/>
+      <c r="P16" s="22" t="n">
+        <v>20</v>
+      </c>
       <c r="Q16" s="12"/>
-      <c r="R16" s="23"/>
+      <c r="R16" s="23" t="n">
+        <v>23</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="22"/>
+      <c r="U16" s="22" t="n">
+        <v>23</v>
+      </c>
       <c r="V16" s="12"/>
-      <c r="W16" s="23"/>
+      <c r="W16" s="23" t="n">
+        <v>26</v>
+      </c>
       <c r="X16" s="25"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="22" t="n">
+        <v>26</v>
+      </c>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="23"/>
+      <c r="AB16" s="23" t="n">
+        <v>35</v>
+      </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
     </row>
@@ -1870,19 +1942,31 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="26"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="13" t="n">
+        <v>19</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="11"/>
+      <c r="P19" s="11" t="n">
+        <v>19</v>
+      </c>
       <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="R19" s="13" t="n">
+        <v>26</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -1935,22 +2019,34 @@
       <c r="F21" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
+      <c r="L21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="19"/>
+      <c r="Q21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -1965,19 +2061,31 @@
       <c r="AD21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="22"/>
+      <c r="F22" s="22" t="n">
+        <v>6</v>
+      </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="23" t="n">
+        <v>10</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="23" t="n">
+        <v>19</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="22"/>
+      <c r="P22" s="22" t="n">
+        <v>19</v>
+      </c>
       <c r="Q22" s="12"/>
-      <c r="R22" s="23"/>
+      <c r="R22" s="23" t="n">
+        <v>26</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -2308,7 +2416,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2429,18 +2537,34 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="K10" s="11"/>
+      <c r="H10" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K10" s="11" t="n">
+        <v>13</v>
+      </c>
       <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="P10" s="11"/>
+      <c r="M10" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="P10" s="11" t="n">
+        <v>18</v>
+      </c>
       <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="13" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
@@ -2475,44 +2599,76 @@
         <f aca="false">VLOOKUP(A11,$A$2:$H$6,8)</f>
         <v>6</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" s="43"/>
       <c r="F12" s="17" t="n">
         <f aca="false">VLOOKUP(F11,$A$2:$H$6,8)</f>
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" s="17" t="n">
         <f aca="false">VLOOKUP(K11,$A$2:$H$6,8)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="P12" s="17" t="n">
         <f aca="false">VLOOKUP(P11,$A$2:$H$6,8)</f>
         <v>9</v>
       </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
+      <c r="Q12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
+      <c r="A13" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="23" t="n">
+        <v>6</v>
+      </c>
       <c r="D13" s="44"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="22" t="n">
+        <v>6</v>
+      </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="23" t="n">
+        <v>13</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="22" t="n">
+        <v>13</v>
+      </c>
       <c r="L13" s="12"/>
-      <c r="M13" s="23"/>
-      <c r="P13" s="22"/>
+      <c r="M13" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="P13" s="22" t="n">
+        <v>18</v>
+      </c>
       <c r="Q13" s="12"/>
-      <c r="R13" s="23"/>
+      <c r="R13" s="23" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="26"/>
@@ -2524,9 +2680,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="26"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="I16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,13 +2704,21 @@
         <f aca="false">VLOOKUP(F17,$A$2:$H$6,8)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="22"/>
+      <c r="F19" s="22" t="n">
+        <v>9</v>
+      </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="23" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="47"/>
@@ -2859,8 +3027,8 @@
   </sheetPr>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U20" activeCellId="0" sqref="U20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3021,15 +3189,27 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="P11" s="11"/>
+      <c r="H11" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>17</v>
+      </c>
       <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="13" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
@@ -3062,35 +3242,59 @@
         <f aca="false">VLOOKUP(A12,$A$2:$H$8,8)</f>
         <v>2</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" s="43"/>
       <c r="F13" s="17" t="n">
         <f aca="false">VLOOKUP(F12,$A$2:$H$6,8)</f>
         <v>11</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="19" t="n">
+        <v>4</v>
+      </c>
       <c r="O13" s="58"/>
       <c r="P13" s="17" t="n">
         <f aca="false">VLOOKUP(P12,$A$2:$H$8,8)</f>
         <v>9</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
+      <c r="Q13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
+      <c r="A14" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="D14" s="44"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22" t="n">
+        <v>6</v>
+      </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="23" t="n">
+        <v>17</v>
+      </c>
       <c r="N14" s="26"/>
-      <c r="P14" s="22"/>
+      <c r="P14" s="22" t="n">
+        <v>17</v>
+      </c>
       <c r="Q14" s="12"/>
-      <c r="R14" s="23"/>
+      <c r="R14" s="23" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="59"/>
@@ -3107,12 +3311,20 @@
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="K17" s="11"/>
+      <c r="H17" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
+      <c r="M17" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
@@ -3141,24 +3353,40 @@
         <f aca="false">VLOOKUP(F18,$A$2:$H$6,8)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" s="17" t="n">
         <f aca="false">VLOOKUP(K18,$A$2:$H$6,8)</f>
         <v>3</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" s="19" t="n">
+        <v>8</v>
+      </c>
       <c r="O19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="26"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="23"/>
-      <c r="K20" s="22"/>
+      <c r="H20" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K20" s="22" t="n">
+        <v>14</v>
+      </c>
       <c r="L20" s="12"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="23" t="n">
+        <v>17</v>
+      </c>
       <c r="O20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,12 +3399,20 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="26"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="K23" s="11"/>
+      <c r="H23" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="13" t="n">
+        <v>17</v>
+      </c>
       <c r="O23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,22 +3439,38 @@
         <f aca="false">VLOOKUP(F24,$A$2:$H$6,8)</f>
         <v>8</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="G25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" s="17" t="n">
         <f aca="false">VLOOKUP(K24,$A$2:$H$8,8)</f>
         <v>7</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="L25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="n">
+        <v>2</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="23"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="22" t="n">
+        <v>10</v>
+      </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="23" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="47"/>

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="55">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t xml:space="preserve">3 Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personentag (Wie lange würde eine Person brauche)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl der Personen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer = Aufwand (PT) / (Anzahl Personen * Kapazität (%))</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1147,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="Y18:Z18 K1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2388,7 +2409,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="Y18:Z18 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3005,10 +3026,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z18" activeCellId="0" sqref="Y18:Z18"/>
+      <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3047,6 +3068,15 @@
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -3072,14 +3102,23 @@
         <v>2</v>
       </c>
       <c r="I2" s="65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="66" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="65" t="n">
         <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,6 +3148,19 @@
         <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
         <v>11</v>
       </c>
+      <c r="Q3" s="1" t="n">
+        <f aca="false">8*0.8</f>
+        <v>6.4</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -3131,11 +3183,20 @@
         <v>1</v>
       </c>
       <c r="J4" s="66" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="65" t="n">
         <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,11 +3220,11 @@
         <v>1</v>
       </c>
       <c r="J5" s="66" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K5" s="65" t="n">
         <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,11 +3248,14 @@
         <v>1</v>
       </c>
       <c r="J6" s="66" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K6" s="65" t="n">
         <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,11 +3279,11 @@
         <v>1</v>
       </c>
       <c r="J7" s="66" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="K7" s="65" t="n">
         <f aca="false">ROUNDUP(H7/(I7*J7),0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,14 +3306,14 @@
         <v>9</v>
       </c>
       <c r="I8" s="65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="66" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="65" t="n">
         <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,25 +3323,25 @@
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="n">
         <f aca="false">A11+A13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="19" t="n">
         <f aca="false">C11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21" t="n">
         <f aca="false">F11+F13</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P11" s="19" t="n">
         <f aca="false">MAX(H11,M17,M23)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" s="21" t="n">
         <f aca="false">P11+P13</f>
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3373,7 @@
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="n">
         <f aca="false">VLOOKUP(A12,$A$2:$K$8,11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="26" t="n">
         <f aca="false">C14-C11</f>
@@ -3326,16 +3390,16 @@
       </c>
       <c r="G13" s="26" t="n">
         <f aca="false">H14-H11</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="27" t="n">
         <f aca="false">P11-H11</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" s="68"/>
       <c r="P13" s="25" t="n">
         <f aca="false">VLOOKUP(P12,$A$2:$K$8,11)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="26" t="n">
         <f aca="false">R14-R11</f>
@@ -3353,27 +3417,27 @@
       <c r="B14" s="20"/>
       <c r="C14" s="31" t="n">
         <f aca="false">MIN(F11,F17,F23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="52"/>
       <c r="F14" s="30" t="n">
         <f aca="false">H14-F13</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="31" t="n">
         <f aca="false">P14</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N14" s="34"/>
       <c r="P14" s="30" t="n">
         <f aca="false">R14-P13</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="31" t="n">
         <f aca="false">R11</f>
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,21 +3457,21 @@
       <c r="D17" s="34"/>
       <c r="F17" s="19" t="n">
         <f aca="false">C11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="21" t="n">
         <f aca="false">F17+F19</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K17" s="19" t="n">
         <f aca="false">H17</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="21" t="n">
         <f aca="false">K17+K19</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
@@ -3435,11 +3499,11 @@
       <c r="C19" s="34"/>
       <c r="F19" s="25" t="n">
         <f aca="false">VLOOKUP(F18,$A$2:$K$8,11)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="26" t="n">
         <f aca="false">H20-H17</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H19" s="27" t="n">
         <f aca="false">K17-H17</f>
@@ -3447,15 +3511,15 @@
       </c>
       <c r="K19" s="25" t="n">
         <f aca="false">VLOOKUP(K18,$A$2:$K$8,11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="26" t="n">
         <f aca="false">M20-M17</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M19" s="27" t="n">
         <f aca="false">P11-M17</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O19" s="34"/>
     </row>
@@ -3463,21 +3527,21 @@
       <c r="C20" s="34"/>
       <c r="F20" s="30" t="n">
         <f aca="false">H20-F19</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="31" t="n">
         <f aca="false">K20</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K20" s="30" t="n">
         <f aca="false">M20-K19</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="31" t="n">
         <f aca="false">P14</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O20" s="34"/>
     </row>
@@ -3493,21 +3557,21 @@
       <c r="C23" s="34"/>
       <c r="F23" s="19" t="n">
         <f aca="false">C11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="21" t="n">
         <f aca="false">F23+F25</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23" s="19" t="n">
         <f aca="false">H23</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="21" t="n">
         <f aca="false">K23+K25</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O23" s="34"/>
     </row>
@@ -3533,7 +3597,7 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="25" t="n">
         <f aca="false">VLOOKUP(F24,$A$2:$K$8,11)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="26" t="n">
         <f aca="false">H26-H23</f>
@@ -3545,7 +3609,7 @@
       </c>
       <c r="K25" s="25" t="n">
         <f aca="false">VLOOKUP(K24,$A$2:$K$8,11)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25" s="26" t="n">
         <f aca="false">M26-M23</f>
@@ -3559,21 +3623,21 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="30" t="n">
         <f aca="false">H26-F25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="31" t="n">
         <f aca="false">K26</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K26" s="30" t="n">
         <f aca="false">M26-K25</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="31" t="n">
         <f aca="false">P14</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übung 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -148,11 +148,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -232,7 +233,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +248,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF2A6099"/>
       </patternFill>
     </fill>
     <fill>
@@ -460,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,7 +528,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,11 +540,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,15 +556,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,14 +576,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -597,11 +608,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,19 +620,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,11 +676,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,7 +688,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,23 +696,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -817,7 +832,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1036,7 +1051,7 @@
   <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="AB13" activeCellId="0" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1115,14 +1130,14 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="n">
         <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -1164,7 +1179,7 @@
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6" t="n">
@@ -1212,6 +1227,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="12" t="n">
+        <f aca="false">100%+(100%-J3)</f>
         <v>1</v>
       </c>
       <c r="K4" s="6" t="n">
@@ -1258,7 +1274,8 @@
       <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="15" t="n">
+        <f aca="false">J3</f>
         <v>1</v>
       </c>
       <c r="K5" s="6" t="n">
@@ -1306,6 +1323,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="12" t="n">
+        <f aca="false">100%+(100%-J5)</f>
         <v>1</v>
       </c>
       <c r="K6" s="6" t="n">
@@ -1352,7 +1370,8 @@
       <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="15" t="n">
+        <f aca="false">J3</f>
         <v>1</v>
       </c>
       <c r="K7" s="6" t="n">
@@ -1399,7 +1418,8 @@
       <c r="I8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="15" t="n">
+        <f aca="false">J3</f>
         <v>1</v>
       </c>
       <c r="K8" s="6" t="n">
@@ -1447,6 +1467,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="12" t="n">
+        <f aca="false">100%+(100%-J8)</f>
         <v>1</v>
       </c>
       <c r="K9" s="6" t="n">
@@ -1491,14 +1512,14 @@
         <v>9</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="6" t="n">
         <f aca="false">ROUNDUP(H10/(I10*J10),0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1585,265 +1606,265 @@
       <c r="AD12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="n">
+      <c r="A13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="n">
         <f aca="false">A13+A15</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="16" t="n">
         <f aca="false">C13</f>
-        <v>6</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="n">
         <f aca="false">F13+F15</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="15" t="n">
+      <c r="K13" s="16" t="n">
         <f aca="false">H13</f>
-        <v>13</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18" t="n">
         <f aca="false">K13+K15</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="15" t="n">
+      <c r="P13" s="16" t="n">
         <f aca="false">M13</f>
+        <v>15</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18" t="n">
+        <f aca="false">P13+P15</f>
         <v>18</v>
-      </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17" t="n">
-        <f aca="false">P13+P15</f>
-        <v>21</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="15" t="n">
+      <c r="U13" s="16" t="n">
         <f aca="false">R13</f>
+        <v>18</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="18" t="n">
+        <f aca="false">U13+U15</f>
         <v>21</v>
-      </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="17" t="n">
-        <f aca="false">U13+U15</f>
-        <v>24</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="15" t="n">
+      <c r="Z13" s="16" t="n">
         <f aca="false">MAX(W13,R19)</f>
-        <v>26</v>
-      </c>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="18" t="n">
         <f aca="false">Z13+Z15</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="18" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="18" t="s">
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="18" t="s">
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="18" t="s">
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="22" t="n">
         <f aca="false">VLOOKUP(A14,$A$2:$K$10,11)</f>
-        <v>6</v>
-      </c>
-      <c r="B15" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="23" t="n">
         <f aca="false">C16-C13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="24" t="n">
         <f aca="false">MIN(F13,F19)-C13</f>
         <v>0</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="22" t="n">
         <f aca="false">VLOOKUP(F14,$A$2:$K$10,11)</f>
         <v>7</v>
       </c>
-      <c r="G15" s="22" t="n">
+      <c r="G15" s="23" t="n">
         <f aca="false">H16-H13</f>
         <v>2</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="24" t="n">
         <f aca="false">K13-H13</f>
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="21" t="n">
+      <c r="K15" s="22" t="n">
         <f aca="false">VLOOKUP(K14,$A$2:$K$10,11)</f>
         <v>5</v>
       </c>
-      <c r="L15" s="22" t="n">
+      <c r="L15" s="23" t="n">
         <f aca="false">M16-M13</f>
         <v>2</v>
       </c>
-      <c r="M15" s="23" t="n">
+      <c r="M15" s="24" t="n">
         <f aca="false">P13-M13</f>
         <v>0</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="21" t="n">
+      <c r="P15" s="22" t="n">
         <f aca="false">VLOOKUP(P14,$A$2:$K$10,11)</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="22" t="n">
+      <c r="Q15" s="23" t="n">
         <f aca="false">R16-R13</f>
         <v>2</v>
       </c>
-      <c r="R15" s="23" t="n">
+      <c r="R15" s="24" t="n">
         <f aca="false">U13-R13</f>
         <v>0</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="21" t="n">
+      <c r="U15" s="22" t="n">
         <f aca="false">VLOOKUP(U14,$A$2:$K$10,11)</f>
         <v>3</v>
       </c>
-      <c r="V15" s="22" t="n">
+      <c r="V15" s="23" t="n">
         <f aca="false">W16-W13</f>
         <v>2</v>
       </c>
-      <c r="W15" s="23" t="n">
+      <c r="W15" s="24" t="n">
         <f aca="false">Z13-W13</f>
         <v>2</v>
       </c>
       <c r="X15" s="7"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="21" t="n">
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="22" t="n">
         <f aca="false">VLOOKUP(Z14,$A$2:$K$10,11)</f>
-        <v>9</v>
-      </c>
-      <c r="AA15" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="23" t="n">
         <f aca="false">AB16-AB13</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="23" t="n">
+      <c r="AB15" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="n">
+      <c r="A16" s="27" t="n">
         <f aca="false">C16-A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="27" t="n">
+      <c r="B16" s="17"/>
+      <c r="C16" s="28" t="n">
         <f aca="false">MIN(F16,F22)</f>
-        <v>6</v>
-      </c>
-      <c r="D16" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="29"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="26" t="n">
+      <c r="F16" s="27" t="n">
         <f aca="false">H16-F15</f>
-        <v>8</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="28" t="n">
         <f aca="false">K16</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="26" t="n">
+      <c r="K16" s="27" t="n">
         <f aca="false">M16-K15</f>
-        <v>15</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="28" t="n">
         <f aca="false">P16</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="26" t="n">
+      <c r="P16" s="27" t="n">
         <f aca="false">R16-P15</f>
+        <v>17</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="28" t="n">
+        <f aca="false">U16</f>
         <v>20</v>
-      </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="27" t="n">
-        <f aca="false">U16</f>
-        <v>23</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="26" t="n">
+      <c r="U16" s="27" t="n">
         <f aca="false">W16-U15</f>
+        <v>20</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="28" t="n">
+        <f aca="false">Z16</f>
         <v>23</v>
       </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="27" t="n">
-        <f aca="false">Z16</f>
-        <v>26</v>
-      </c>
-      <c r="X16" s="29"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="26" t="n">
+      <c r="Z16" s="27" t="n">
         <f aca="false">AB16-Z15</f>
-        <v>26</v>
-      </c>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="28" t="n">
         <f aca="false">AB13</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -1852,7 +1873,7 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1871,7 +1892,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="29"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -1883,7 +1904,7 @@
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1902,7 +1923,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="29"/>
+      <c r="X18" s="30"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
@@ -1914,44 +1935,44 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="30"/>
-      <c r="F19" s="15" t="n">
+      <c r="D19" s="31"/>
+      <c r="F19" s="16" t="n">
         <f aca="false">C13</f>
-        <v>6</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18" t="n">
         <f aca="false">F19+F21</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="15" t="n">
+      <c r="K19" s="16" t="n">
         <f aca="false">H19</f>
-        <v>10</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18" t="n">
         <f aca="false">K19+K21</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="15" t="n">
+      <c r="P19" s="16" t="n">
         <f aca="false">M19</f>
-        <v>19</v>
-      </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18" t="n">
         <f aca="false">P19+P21</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="29"/>
+      <c r="X19" s="30"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
@@ -1960,33 +1981,33 @@
       <c r="AD19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="18" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="18" t="s">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="33"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -1995,43 +2016,43 @@
       <c r="AD20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="21" t="n">
+      <c r="F21" s="22" t="n">
         <f aca="false">VLOOKUP(F20,$A$2:$K$10,11)</f>
         <v>4</v>
       </c>
-      <c r="G21" s="22" t="n">
+      <c r="G21" s="23" t="n">
         <f aca="false">H22-H19</f>
         <v>0</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="24" t="n">
         <f aca="false">K19-H19</f>
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="21" t="n">
+      <c r="K21" s="22" t="n">
         <f aca="false">VLOOKUP(K20,$A$2:$K$10,11)</f>
         <v>9</v>
       </c>
-      <c r="L21" s="22" t="n">
+      <c r="L21" s="23" t="n">
         <f aca="false">M22-M19</f>
         <v>0</v>
       </c>
-      <c r="M21" s="23" t="n">
+      <c r="M21" s="24" t="n">
         <f aca="false">P19-M19</f>
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="21" t="n">
+      <c r="P21" s="22" t="n">
         <f aca="false">VLOOKUP(P20,$A$2:$K$10,11)</f>
         <v>7</v>
       </c>
-      <c r="Q21" s="22" t="n">
+      <c r="Q21" s="23" t="n">
         <f aca="false">R22-R19</f>
         <v>0</v>
       </c>
-      <c r="R21" s="23" t="n">
+      <c r="R21" s="24" t="n">
         <f aca="false">Z13-R19</f>
         <v>0</v>
       </c>
@@ -2049,36 +2070,36 @@
       <c r="AD21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="27" t="n">
         <f aca="false">H22-F21</f>
-        <v>6</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="28" t="n">
         <f aca="false">K22</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="26" t="n">
+      <c r="K22" s="27" t="n">
         <f aca="false">M22-K21</f>
-        <v>10</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="28" t="n">
         <f aca="false">P22</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="26" t="n">
+      <c r="P22" s="27" t="n">
         <f aca="false">R22-P21</f>
-        <v>19</v>
-      </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="28" t="n">
         <f aca="false">Z16</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -2188,136 +2209,136 @@
       <c r="AD31" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="36" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="41" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="41" t="s">
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="R35" s="36" t="s">
+      <c r="R35" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="45" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="44"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="C39" s="45"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44"/>
-      <c r="C40" s="44"/>
+      <c r="A40" s="45"/>
+      <c r="C40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44"/>
-      <c r="C41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="C41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="A42" s="45"/>
+      <c r="C42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="C43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="45"/>
+      <c r="C44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="45"/>
+      <c r="C45" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2369,7 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -2552,458 +2573,458 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="n">
+      <c r="A10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="n">
         <f aca="false">A10+A12</f>
         <v>6</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="16" t="n">
         <f aca="false">C10</f>
         <v>6</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="n">
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="n">
         <f aca="false">F10+F12</f>
         <v>13</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="16" t="n">
         <f aca="false">MAX(H10,H16)</f>
         <v>13</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17" t="n">
+      <c r="L10" s="17"/>
+      <c r="M10" s="18" t="n">
         <f aca="false">K10+K12</f>
         <v>18</v>
       </c>
-      <c r="P10" s="15" t="n">
+      <c r="P10" s="16" t="n">
         <f aca="false">M10</f>
         <v>18</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17" t="n">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18" t="n">
         <f aca="false">P10+P12</f>
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="18" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="18" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="18" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="22" t="n">
         <f aca="false">VLOOKUP(A11,$A$2:$K$6,11)</f>
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">C13-C10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="24" t="n">
         <f aca="false">MIN(F10,F16)-C10</f>
         <v>0</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="F12" s="21" t="n">
+      <c r="D12" s="48"/>
+      <c r="F12" s="22" t="n">
         <f aca="false">VLOOKUP(F11,$A$2:$K$6,11)</f>
         <v>7</v>
       </c>
-      <c r="G12" s="22" t="n">
+      <c r="G12" s="23" t="n">
         <f aca="false">H13-H10</f>
         <v>0</v>
       </c>
-      <c r="H12" s="23" t="n">
+      <c r="H12" s="24" t="n">
         <f aca="false">K10-H10</f>
         <v>0</v>
       </c>
-      <c r="K12" s="21" t="n">
+      <c r="K12" s="22" t="n">
         <f aca="false">VLOOKUP(K11,$A$2:$K$6,11)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="22" t="n">
+      <c r="L12" s="23" t="n">
         <f aca="false">M13-M10</f>
         <v>0</v>
       </c>
-      <c r="M12" s="23" t="n">
+      <c r="M12" s="24" t="n">
         <f aca="false">P10-M10</f>
         <v>0</v>
       </c>
-      <c r="P12" s="21" t="n">
+      <c r="P12" s="22" t="n">
         <f aca="false">VLOOKUP(P11,$A$2:$K$6,11)</f>
         <v>9</v>
       </c>
-      <c r="Q12" s="22" t="n">
+      <c r="Q12" s="23" t="n">
         <f aca="false">R13-R10</f>
         <v>0</v>
       </c>
-      <c r="R12" s="23" t="n">
+      <c r="R12" s="24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="n">
+      <c r="A13" s="27" t="n">
         <f aca="false">C13-A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="27" t="n">
+      <c r="B13" s="17"/>
+      <c r="C13" s="28" t="n">
         <f aca="false">MIN(F13,F19)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="F13" s="26" t="n">
+      <c r="D13" s="49"/>
+      <c r="F13" s="27" t="n">
         <f aca="false">H13-F12</f>
         <v>6</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="27" t="n">
+      <c r="G13" s="17"/>
+      <c r="H13" s="28" t="n">
         <f aca="false">K13</f>
         <v>13</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="26" t="n">
+      <c r="I13" s="31"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="27" t="n">
         <f aca="false">M13-K12</f>
         <v>13</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="27" t="n">
+      <c r="L13" s="17"/>
+      <c r="M13" s="28" t="n">
         <f aca="false">P13</f>
         <v>18</v>
       </c>
-      <c r="P13" s="26" t="n">
+      <c r="P13" s="27" t="n">
         <f aca="false">R13-P12</f>
         <v>18</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="27" t="n">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="28" t="n">
         <f aca="false">R10</f>
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="30"/>
-      <c r="F16" s="15" t="n">
+      <c r="D16" s="31"/>
+      <c r="F16" s="16" t="n">
         <f aca="false">C10</f>
         <v>6</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17" t="n">
+      <c r="G16" s="17"/>
+      <c r="H16" s="18" t="n">
         <f aca="false">F16+F18</f>
         <v>10</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="18" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="50"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="22" t="n">
         <f aca="false">VLOOKUP(F17,$A$2:$K$6,11)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="22" t="n">
+      <c r="G18" s="23" t="n">
         <f aca="false">H19-H16</f>
         <v>3</v>
       </c>
-      <c r="H18" s="23" t="n">
+      <c r="H18" s="24" t="n">
         <f aca="false">K10-H16</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="26" t="n">
+      <c r="F19" s="27" t="n">
         <f aca="false">H19-F18</f>
         <v>9</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="27" t="n">
+      <c r="G19" s="17"/>
+      <c r="H19" s="28" t="n">
         <f aca="false">K13</f>
         <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53" t="s">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="52"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="53"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51"/>
-      <c r="B42" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="55" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="52"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="53"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="52"/>
+      <c r="B43" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="52"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="52"/>
+      <c r="B44" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="52"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="53"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="52"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="53"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51"/>
-      <c r="B46" s="58" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="52"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51"/>
-      <c r="B47" s="58" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="52"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="53"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="52"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51"/>
-      <c r="B49" s="58" t="s">
+      <c r="A49" s="52"/>
+      <c r="B49" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="52"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51"/>
-      <c r="B50" s="56" t="s">
+      <c r="A50" s="52"/>
+      <c r="B50" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="52"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="53"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="51"/>
-      <c r="B51" s="57" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="52"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="53"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51"/>
-      <c r="B52" s="60" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3050,8 +3071,8 @@
   </sheetPr>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y8" activeCellId="0" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3111,15 +3132,15 @@
       <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>1</v>
+      <c r="I2" s="62" t="n">
+        <v>2</v>
       </c>
       <c r="J2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="n">
         <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,11 +3164,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="6" t="n">
         <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,11 +3192,11 @@
         <v>1</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="K4" s="6" t="n">
         <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,11 +3248,11 @@
         <v>1</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="K6" s="6" t="n">
         <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,581 +3303,581 @@
         <v>9</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="6" t="n">
         <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="n">
+        <f aca="false">A11+A13</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="n">
+        <f aca="false">C11</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18" t="n">
+        <f aca="false">F11+F13</f>
+        <v>18</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <f aca="false">MAX(H11,M17,M23)</f>
+        <v>22</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18" t="n">
+        <f aca="false">P11+P13</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="n">
-        <f aca="false">A11+A13</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <f aca="false">C11</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="n">
-        <f aca="false">F11+F13</f>
-        <v>13</v>
-      </c>
-      <c r="P11" s="15" t="n">
-        <f aca="false">MAX(H11,M17,M23)</f>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="n">
+        <f aca="false">VLOOKUP(A12,$A$2:$K$8,11)</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="n">
+        <f aca="false">C14-C11</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="n">
+        <f aca="false">MIN(F11,F17,F23)-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="F13" s="22" t="n">
+        <f aca="false">VLOOKUP(F12,$A$2:$K$8,11)</f>
         <v>17</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17" t="n">
-        <f aca="false">P11+P13</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
-        <f aca="false">VLOOKUP(A12,$A$2:$K$8,11)</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="22" t="n">
-        <f aca="false">C14-C11</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="23" t="n">
-        <f aca="false">MIN(F11,F17,F23)-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="F13" s="21" t="n">
-        <f aca="false">VLOOKUP(F12,$A$2:$K$8,11)</f>
-        <v>11</v>
-      </c>
-      <c r="G13" s="22" t="n">
+      <c r="G13" s="23" t="n">
         <f aca="false">H14-H11</f>
         <v>4</v>
       </c>
-      <c r="H13" s="23" t="n">
+      <c r="H13" s="24" t="n">
         <f aca="false">$P$11-H11</f>
         <v>4</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="P13" s="21" t="n">
+      <c r="O13" s="64"/>
+      <c r="P13" s="22" t="n">
         <f aca="false">VLOOKUP(P12,$A$2:$K$8,11)</f>
+        <v>5</v>
+      </c>
+      <c r="Q13" s="23" t="n">
+        <f aca="false">R14-R11</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="n">
+        <f aca="false">C14-A13</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="28" t="n">
+        <f aca="false">MIN(F14,F20,F26)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="F14" s="27" t="n">
+        <f aca="false">H14-F13</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="28" t="n">
+        <f aca="false">$P$14</f>
+        <v>22</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="P14" s="27" t="n">
+        <f aca="false">R14-P13</f>
+        <v>22</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="28" t="n">
+        <f aca="false">R11</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="65"/>
+      <c r="D15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="16" t="n">
+        <f aca="false">C11</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18" t="n">
+        <f aca="false">F17+F19</f>
+        <v>13</v>
+      </c>
+      <c r="K17" s="16" t="n">
+        <f aca="false">H17</f>
+        <v>13</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18" t="n">
+        <f aca="false">K17+K19</f>
+        <v>22</v>
+      </c>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="31"/>
+      <c r="F19" s="22" t="n">
+        <f aca="false">VLOOKUP(F18,$A$2:$K$8,11)</f>
+        <v>12</v>
+      </c>
+      <c r="G19" s="23" t="n">
+        <f aca="false">H20-H17</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="24" t="n">
+        <f aca="false">K17-H17</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="22" t="n">
+        <f aca="false">VLOOKUP(K18,$A$2:$K$8,11)</f>
         <v>9</v>
       </c>
-      <c r="Q13" s="22" t="n">
-        <f aca="false">R14-R11</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
-        <f aca="false">C14-A13</f>
-        <v>4</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27" t="n">
-        <f aca="false">MIN(F14,F20,F27)</f>
+      <c r="L19" s="23" t="n">
+        <f aca="false">M20-M17</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="24" t="n">
+        <f aca="false">$P$11-M17</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="31"/>
+      <c r="F20" s="27" t="n">
+        <f aca="false">H20-F19</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="28" t="n">
+        <f aca="false">K20</f>
+        <v>13</v>
+      </c>
+      <c r="K20" s="27" t="n">
+        <f aca="false">M20-K19</f>
+        <v>13</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="28" t="n">
+        <f aca="false">$P$14</f>
+        <v>22</v>
+      </c>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="31"/>
+      <c r="F23" s="16" t="n">
+        <f aca="false">C11</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="n">
+        <f aca="false">F23+F25</f>
+        <v>9</v>
+      </c>
+      <c r="K23" s="16" t="n">
+        <f aca="false">H23</f>
+        <v>9</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18" t="n">
+        <f aca="false">K23+K25</f>
+        <v>16</v>
+      </c>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="31"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="F14" s="26" t="n">
-        <f aca="false">H14-F13</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="27" t="n">
-        <f aca="false">$P$14</f>
-        <v>17</v>
-      </c>
-      <c r="N14" s="30"/>
-      <c r="P14" s="26" t="n">
-        <f aca="false">R14-P13</f>
-        <v>17</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="27" t="n">
-        <f aca="false">R11</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="63"/>
-      <c r="D15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="F17" s="15" t="n">
-        <f aca="false">C11</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17" t="n">
-        <f aca="false">F17+F19</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="15" t="n">
-        <f aca="false">H17</f>
-        <v>6</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17" t="n">
-        <f aca="false">K17+K19</f>
-        <v>9</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="30"/>
-      <c r="F19" s="21" t="n">
-        <f aca="false">VLOOKUP(F18,$A$2:$K$8,11)</f>
-        <v>4</v>
-      </c>
-      <c r="G19" s="22" t="n">
-        <f aca="false">H20-H17</f>
-        <v>8</v>
-      </c>
-      <c r="H19" s="23" t="n">
-        <f aca="false">K17-H17</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="21" t="n">
-        <f aca="false">VLOOKUP(K18,$A$2:$K$8,11)</f>
-        <v>3</v>
-      </c>
-      <c r="L19" s="22" t="n">
-        <f aca="false">M20-M17</f>
-        <v>8</v>
-      </c>
-      <c r="M19" s="23" t="n">
-        <f aca="false">$P$11-M17</f>
-        <v>8</v>
-      </c>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="30"/>
-      <c r="F20" s="26" t="n">
-        <f aca="false">H20-F19</f>
-        <v>10</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="27" t="n">
-        <f aca="false">K20</f>
-        <v>14</v>
-      </c>
-      <c r="K20" s="26" t="n">
-        <f aca="false">M20-K19</f>
-        <v>14</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="27" t="n">
-        <f aca="false">$P$14</f>
-        <v>17</v>
-      </c>
-      <c r="O20" s="30"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="30"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="30"/>
-      <c r="O22" s="30"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="30"/>
-      <c r="F23" s="15" t="n">
-        <f aca="false">C11</f>
-        <v>2</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17" t="n">
-        <f aca="false">F23+F25</f>
-        <v>10</v>
-      </c>
-      <c r="K23" s="15" t="n">
-        <f aca="false">H23</f>
-        <v>10</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="17" t="n">
-        <f aca="false">K23+K25</f>
-        <v>17</v>
-      </c>
-      <c r="O23" s="30"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="30"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="18" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="65"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="67"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="21" t="n">
+      <c r="F25" s="22" t="n">
         <f aca="false">VLOOKUP(F24,$A$2:$K$8,11)</f>
         <v>8</v>
       </c>
-      <c r="G25" s="22" t="n">
+      <c r="G25" s="23" t="n">
         <f aca="false">H26-H23</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" s="24" t="n">
         <f aca="false">K23-H23</f>
         <v>0</v>
       </c>
-      <c r="K25" s="21" t="n">
+      <c r="K25" s="22" t="n">
         <f aca="false">VLOOKUP(K24,$A$2:$K$8,11)</f>
         <v>7</v>
       </c>
-      <c r="L25" s="22" t="n">
+      <c r="L25" s="23" t="n">
         <f aca="false">M26-M23</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" s="24" t="n">
         <f aca="false">$P$11-M23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="27" t="n">
         <f aca="false">H26-F25</f>
-        <v>2</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="28" t="n">
         <f aca="false">K26</f>
-        <v>10</v>
-      </c>
-      <c r="K26" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="K26" s="27" t="n">
         <f aca="false">M26-K25</f>
-        <v>10</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="27" t="n">
+        <v>15</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="28" t="n">
         <f aca="false">$P$14</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="52"/>
+      <c r="B43" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="53"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="52"/>
+      <c r="B44" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="53"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="52"/>
+      <c r="B45" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="53"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="52"/>
+      <c r="B46" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="53"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="52"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="53"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="52"/>
+      <c r="B48" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53" t="s">
+      <c r="C48" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="53"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="52"/>
+      <c r="B49" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="52"/>
+      <c r="B50" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="52"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="51"/>
-      <c r="B44" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="52"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="51"/>
-      <c r="B45" s="56" t="s">
+      <c r="C50" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="53"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="52"/>
+      <c r="B51" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="53"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="52"/>
+      <c r="B52" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C52" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="53"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="52"/>
+      <c r="B53" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="C53" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="53"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="52"/>
+      <c r="B54" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="52"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="52"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="52"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="51"/>
-      <c r="B48" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="52"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51"/>
-      <c r="B49" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="52"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="51"/>
-      <c r="B50" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="52"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="51"/>
-      <c r="B51" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="52"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51"/>
-      <c r="B52" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="52"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="51"/>
-      <c r="B53" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="52"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="51"/>
-      <c r="B54" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="52" t="s">
+      <c r="C54" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -22,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -292,6 +292,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -315,6 +322,55 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -341,7 +397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,23 +414,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,7 +442,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,6 +470,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,6 +494,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,6 +554,10 @@
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,6 +595,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,7 +935,7 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,397 +952,417 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="0"/>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="0"/>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9" t="n">
+        <v>8</v>
+      </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="0"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="0"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9" t="n">
+        <v>4</v>
+      </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="0"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9" t="n">
+        <v>13</v>
+      </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="0"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="0"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -1273,146 +1393,238 @@
       <c r="AE12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="n">
+        <v>6</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="n">
+        <v>14</v>
+      </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
+      <c r="K13" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16" t="n">
+        <v>25</v>
+      </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="P13" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16" t="n">
+        <v>29</v>
+      </c>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
+      <c r="U13" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="16" t="n">
+        <v>42</v>
+      </c>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
+      <c r="Z13" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="16" t="n">
+        <v>47</v>
+      </c>
       <c r="AC13" s="0"/>
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="0"/>
       <c r="AD14" s="0"/>
       <c r="AE14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
+      <c r="K15" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
+      <c r="P15" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
+      <c r="U15" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="X15" s="0"/>
       <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
+      <c r="Z15" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
       <c r="AE15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="0"/>
+      <c r="A16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="24"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="F16" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="23" t="n">
+        <v>14</v>
+      </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
+      <c r="K16" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="23" t="n">
+        <v>25</v>
+      </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
+      <c r="P16" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="23" t="n">
+        <v>29</v>
+      </c>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
+      <c r="U16" s="22" t="n">
+        <v>29</v>
+      </c>
+      <c r="V16" s="15"/>
+      <c r="W16" s="23" t="n">
+        <v>42</v>
+      </c>
       <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="23" t="n">
+        <v>47</v>
+      </c>
       <c r="AC16" s="0"/>
       <c r="AD16" s="0"/>
       <c r="AE16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="0"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -1433,7 +1645,7 @@
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
+      <c r="Y17" s="27"/>
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -1442,10 +1654,10 @@
       <c r="AE17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="0"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -1466,7 +1678,7 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
+      <c r="Y18" s="27"/>
       <c r="Z18" s="0"/>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -1475,31 +1687,43 @@
       <c r="AE18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="0"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16" t="n">
+        <v>11</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="K19" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16" t="n">
+        <v>17</v>
+      </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
+      <c r="P19" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16" t="n">
+        <v>28</v>
+      </c>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
+      <c r="Y19" s="27"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -1508,28 +1732,34 @@
       <c r="AE19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="27"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
@@ -1540,19 +1770,37 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
+      <c r="K21" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="20" t="n">
+        <v>14</v>
+      </c>
+      <c r="M21" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
+      <c r="P21" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="20" t="n">
+        <v>14</v>
+      </c>
+      <c r="R21" s="21" t="n">
+        <v>14</v>
+      </c>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0"/>
@@ -1570,19 +1818,31 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="23" t="n">
+        <v>25</v>
+      </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
+      <c r="K22" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="23" t="n">
+        <v>31</v>
+      </c>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
+      <c r="P22" s="22" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="23" t="n">
+        <v>42</v>
+      </c>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
@@ -1628,208 +1888,216 @@
       <c r="AE23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="27" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="27" t="s">
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="29" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="38"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="38"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="38"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="38"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="38"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="38"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="38"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="38"/>
+      <c r="C45" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:R20"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
@@ -1840,7 +2108,7 @@
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B15 G15 G21 L15 L21 Q15 Q21 V15 AA15">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -1868,7 +2136,7 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1885,7 +2153,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="0"/>
+      <c r="E1" s="39" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
@@ -1893,16 +2163,18 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="0"/>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="39" t="n">
+        <v>8</v>
+      </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -1910,14 +2182,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -1925,14 +2199,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="39" t="n">
+        <v>9</v>
+      </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -1940,16 +2216,18 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="0"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="39" t="n">
+        <v>6</v>
+      </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -1959,12 +2237,14 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="0"/>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="39" t="n">
+        <v>11</v>
+      </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -2005,9 +2285,9 @@
       <c r="U9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -2028,11 +2308,11 @@
       <c r="U10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -2053,12 +2333,12 @@
       <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="19" t="n">
         <f aca="false">VLOOKUP(A11,$A$2:$H$6,8)</f>
         <v>0</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -2079,9 +2359,9 @@
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -2262,246 +2542,246 @@
       <c r="U21" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="32"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="41"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31"/>
-      <c r="B42" s="34" t="s">
+      <c r="A42" s="40"/>
+      <c r="B42" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="35" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="32"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="37" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="32"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31"/>
-      <c r="B44" s="33" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="32"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="32"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="41"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31"/>
-      <c r="B46" s="38" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="32"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="32"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="41"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="40"/>
+      <c r="B48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="32"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="40"/>
+      <c r="B49" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="32"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="41"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31"/>
-      <c r="B50" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="39" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="32"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="41"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31"/>
-      <c r="B51" s="37" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="32"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2543,13 +2823,15 @@
   </sheetPr>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="6" style="1" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2843,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="0"/>
+      <c r="E1" s="39" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
@@ -2570,16 +2854,18 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="0"/>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="39" t="n">
+        <v>5</v>
+      </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -2588,14 +2874,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="39" t="n">
+        <v>13</v>
+      </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -2604,14 +2892,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="39" t="n">
+        <v>9</v>
+      </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -2620,14 +2910,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="0"/>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -2638,12 +2930,14 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="0"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="39" t="n">
+        <v>11</v>
+      </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
@@ -2654,12 +2948,14 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="0"/>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="39" t="n">
+        <v>7</v>
+      </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -2670,16 +2966,18 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="0"/>
+      <c r="E8" s="39" t="n">
+        <v>8</v>
+      </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -2687,7 +2985,7 @@
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
@@ -2695,11 +2993,11 @@
       <c r="J9" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
@@ -2718,13 +3016,13 @@
       <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -2743,14 +3041,14 @@
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="19" t="n">
         <f aca="false">VLOOKUP(A12,$A$2:$H$8,8)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -2769,11 +3067,11 @@
       <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -2794,7 +3092,7 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -2815,7 +3113,7 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -2836,7 +3134,7 @@
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -2857,7 +3155,7 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -2878,7 +3176,7 @@
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
@@ -2899,7 +3197,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
@@ -2920,7 +3218,7 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
@@ -2941,7 +3239,7 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
@@ -2962,7 +3260,7 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
@@ -2983,7 +3281,7 @@
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
@@ -3003,7 +3301,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
@@ -3023,7 +3321,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -3042,246 +3340,246 @@
       <c r="U26" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="32"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31"/>
-      <c r="B44" s="34" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="35" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="32"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31"/>
-      <c r="B45" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="37" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="32"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="41"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31"/>
-      <c r="B46" s="33" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="32"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="32"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="41"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="40"/>
+      <c r="B48" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="32"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31"/>
-      <c r="B49" s="38" t="s">
+      <c r="A49" s="40"/>
+      <c r="B49" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="32"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="41"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31"/>
-      <c r="B50" s="38" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="32"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="41"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31"/>
-      <c r="B51" s="38" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="32"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31"/>
-      <c r="B52" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="39" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="32"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="41"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31"/>
-      <c r="B53" s="37" t="s">
+      <c r="A53" s="40"/>
+      <c r="B53" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="32"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31"/>
-      <c r="B54" s="40" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="36">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -136,9 +136,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -279,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -371,6 +372,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -397,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -558,6 +573,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -595,6 +618,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,7 +650,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -665,15 +700,6 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2136,7 +2162,7 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2285,24 +2311,47 @@
       <c r="U9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="16" t="n">
+        <f aca="false">A10+A12</f>
+        <v>8</v>
+      </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
+      <c r="F10" s="14" t="n">
+        <f aca="false">C10</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="n">
+        <f aca="false">F10+F12</f>
+        <v>20</v>
+      </c>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
+      <c r="K10" s="14" t="n">
+        <f aca="false">MAX(H10,H16)</f>
+        <v>20</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16" t="n">
+        <f aca="false">K10+K12</f>
+        <v>26</v>
+      </c>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
+      <c r="P10" s="14" t="n">
+        <f aca="false">M10</f>
+        <v>26</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16" t="n">
+        <f aca="false">P10+P12</f>
+        <v>37</v>
+      </c>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0"/>
@@ -2313,82 +2362,135 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="n">
-        <f aca="false">VLOOKUP(A11,$A$2:$H$6,8)</f>
+        <f aca="false">VLOOKUP(A11,$A$2:$E$6,5)</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="40" t="n">
+        <f aca="false">C13-C10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="20"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="0"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="F12" s="19" t="n">
+        <f aca="false">VLOOKUP(F11,$A$2:$E$6,5)</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="40" t="n">
+        <f aca="false">H13-H10</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19" t="n">
+        <f aca="false">VLOOKUP(K11,$A$2:$E$6,5)</f>
+        <v>6</v>
+      </c>
+      <c r="L12" s="40" t="n">
+        <f aca="false">M13-M10</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="21"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="P12" s="19" t="n">
+        <f aca="false">VLOOKUP(P11,$A$2:$E$6,5)</f>
+        <v>11</v>
+      </c>
+      <c r="Q12" s="40" t="n">
+        <f aca="false">R13-R10</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
+      <c r="A13" s="22" t="n">
+        <f aca="false">C13-A12</f>
+        <v>0</v>
+      </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="23" t="n">
+        <f aca="false">MIN(F13,F19)</f>
+        <v>8</v>
+      </c>
       <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="22" t="n">
+        <f aca="false">H13-F12</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="23" t="n">
+        <f aca="false">K13</f>
+        <v>20</v>
+      </c>
       <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="22" t="n">
+        <f aca="false">M13-K12</f>
+        <v>20</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="23" t="n">
+        <f aca="false">P13</f>
+        <v>26</v>
+      </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="P13" s="22" t="n">
+        <f aca="false">R13-P12</f>
+        <v>26</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="23" t="n">
+        <f aca="false">R10</f>
+        <v>37</v>
+      </c>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
@@ -2403,12 +2505,12 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
@@ -2423,12 +2525,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="14" t="n">
+        <f aca="false">C10</f>
+        <v>8</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="n">
+        <f aca="false">F16+F18</f>
+        <v>17</v>
+      </c>
       <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
@@ -2443,12 +2551,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
@@ -2464,9 +2574,15 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="F18" s="19" t="n">
+        <f aca="false">VLOOKUP(F17,$A$2:$E$6,5)</f>
+        <v>9</v>
+      </c>
+      <c r="G18" s="40" t="n">
+        <f aca="false">H19-H16</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -2484,9 +2600,15 @@
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="22" t="n">
+        <f aca="false">H19-F18</f>
+        <v>11</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="23" t="n">
+        <f aca="false">K13</f>
+        <v>20</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -2542,251 +2664,255 @@
       <c r="U21" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="41"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="44" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="41"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="41"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42" t="s">
+      <c r="C44" s="44"/>
+      <c r="D44" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="41"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="41"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
-      <c r="B46" s="47" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="41"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="41"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="41"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="41"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="41"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="41"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="F42:J42"/>
     <mergeCell ref="C46:K46"/>
@@ -2796,7 +2922,7 @@
     <mergeCell ref="C50:K50"/>
     <mergeCell ref="C51:K51"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B12 G12 G18 L12 Q12">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
@@ -2824,7 +2950,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2843,7 +2969,7 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="0"/>
@@ -2863,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="39" t="n">
+      <c r="E2" s="52" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="0"/>
@@ -2881,7 +3007,7 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="39" t="n">
+      <c r="E3" s="52" t="n">
         <v>13</v>
       </c>
       <c r="F3" s="0"/>
@@ -2899,7 +3025,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="39" t="n">
+      <c r="E4" s="52" t="n">
         <v>9</v>
       </c>
       <c r="F4" s="0"/>
@@ -2917,7 +3043,7 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="39" t="n">
+      <c r="E5" s="52" t="n">
         <v>12</v>
       </c>
       <c r="F5" s="0"/>
@@ -2935,7 +3061,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="39" t="n">
+      <c r="E6" s="52" t="n">
         <v>11</v>
       </c>
       <c r="F6" s="0"/>
@@ -2953,7 +3079,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="39" t="n">
+      <c r="E7" s="52" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="0"/>
@@ -2975,7 +3101,7 @@
       <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="39" t="n">
+      <c r="E8" s="52" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="0"/>
@@ -2993,14 +3119,25 @@
       <c r="J9" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="16" t="n">
+        <f aca="false">A11+A13</f>
+        <v>5</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+      <c r="F11" s="14" t="n">
+        <f aca="false">$C$11</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="n">
+        <f aca="false">F11+F13</f>
+        <v>18</v>
+      </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -3008,9 +3145,15 @@
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
+      <c r="P11" s="14" t="n">
+        <f aca="false">MAX(H11,K17:M18,M23)</f>
+        <v>25</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16" t="n">
+        <f aca="false">P11+P13</f>
+        <v>33</v>
+      </c>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
@@ -3021,78 +3164,123 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="n">
-        <f aca="false">VLOOKUP(A12,$A$2:$H$8,8)</f>
+        <f aca="false">VLOOKUP(A12,$A$2:$E$8,5)</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="20" t="n">
+        <f aca="false">C14-C11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="0"/>
+      <c r="C13" s="21" t="n">
+        <f aca="false">MIN(F11,F17,F23)-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="19" t="n">
+        <f aca="false">VLOOKUP(F12,$A$2:$E$8,5)</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <f aca="false">H14-H11</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <f aca="false">$P$11-H11</f>
+        <v>7</v>
+      </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19" t="n">
+        <f aca="false">VLOOKUP(P12,$A$2:$E$8,5)</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <f aca="false">R14-R11</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="21" t="n">
+        <v>0</v>
+      </c>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
+      <c r="A14" s="22" t="n">
+        <f aca="false">C14-A13</f>
+        <v>0</v>
+      </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23" t="n">
+        <f aca="false">MIN(F14,F20,F26)</f>
+        <v>5</v>
+      </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="22" t="n">
+        <f aca="false">H14-F13</f>
+        <v>12</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="23" t="n">
+        <f aca="false">$P$14</f>
+        <v>25</v>
+      </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="22" t="n">
+        <f aca="false">R14-P13</f>
+        <v>25</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="23" t="n">
+        <f aca="false">R11</f>
+        <v>33</v>
+      </c>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -3102,8 +3290,8 @@
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
       <c r="Q15" s="0"/>
       <c r="R15" s="0"/>
       <c r="S15" s="0"/>
@@ -3112,8 +3300,8 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -3123,8 +3311,8 @@
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
       <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
@@ -3133,19 +3321,31 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="14" t="n">
+        <f aca="false">$C$11</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="n">
+        <f aca="false">F17+F19</f>
+        <v>14</v>
+      </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
+      <c r="K17" s="14" t="n">
+        <f aca="false">H17</f>
+        <v>14</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16" t="n">
+        <f aca="false">K17+K19</f>
+        <v>25</v>
+      </c>
       <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
       <c r="S17" s="0"/>
@@ -3154,19 +3354,23 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
       <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
       <c r="S18" s="0"/>
@@ -3175,19 +3379,37 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="19" t="n">
+        <f aca="false">VLOOKUP(F18,$A$2:$E$8,5)</f>
+        <v>9</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <f aca="false">H20-H17</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <f aca="false">K17-H17</f>
+        <v>0</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="K19" s="19" t="n">
+        <f aca="false">VLOOKUP(K18,$A$2:$E$8,5)</f>
+        <v>11</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <f aca="false">M20-M17</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="21" t="n">
+        <f aca="false">$P$11-M17</f>
+        <v>0</v>
+      </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="0"/>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
@@ -3196,19 +3418,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
+      <c r="F20" s="22" t="n">
+        <f aca="false">H20-F19</f>
+        <v>5</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="23" t="n">
+        <f aca="false">K20</f>
+        <v>14</v>
+      </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
+      <c r="K20" s="22" t="n">
+        <f aca="false">M20-K19</f>
+        <v>14</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="23" t="n">
+        <f aca="false">$P$14</f>
+        <v>25</v>
+      </c>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
+      <c r="P20" s="27"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
@@ -3217,7 +3451,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="39"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -3229,7 +3463,7 @@
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="0"/>
       <c r="R21" s="0"/>
       <c r="S21" s="0"/>
@@ -3238,7 +3472,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="39"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -3250,7 +3484,7 @@
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
+      <c r="P22" s="27"/>
       <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
@@ -3259,19 +3493,31 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="14" t="n">
+        <f aca="false">$C$11</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16" t="n">
+        <f aca="false">F23+F25</f>
+        <v>17</v>
+      </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
+      <c r="K23" s="14" t="n">
+        <f aca="false">H23</f>
+        <v>17</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16" t="n">
+        <f aca="false">K23+K25</f>
+        <v>24</v>
+      </c>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="0"/>
       <c r="R23" s="0"/>
       <c r="S23" s="0"/>
@@ -3280,19 +3526,23 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="27"/>
       <c r="Q24" s="0"/>
       <c r="R24" s="0"/>
       <c r="S24" s="0"/>
@@ -3302,14 +3552,32 @@
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
+      <c r="F25" s="19" t="n">
+        <f aca="false">VLOOKUP(F24,$A$2:$E$8,5)</f>
+        <v>12</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <f aca="false">H26-H23</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <f aca="false">K23-H23</f>
+        <v>0</v>
+      </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
+      <c r="K25" s="19" t="n">
+        <f aca="false">VLOOKUP(K24,$A$2:$E$8,5)</f>
+        <v>7</v>
+      </c>
+      <c r="L25" s="20" t="n">
+        <f aca="false">M26-M23</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="21" t="n">
+        <f aca="false">$P$11-M23</f>
+        <v>1</v>
+      </c>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
@@ -3322,14 +3590,26 @@
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0"/>
       <c r="E26" s="39"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
+      <c r="F26" s="22" t="n">
+        <f aca="false">H26-F25</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="23" t="n">
+        <f aca="false">K26</f>
+        <v>18</v>
+      </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
+      <c r="K26" s="22" t="n">
+        <f aca="false">M26-K25</f>
+        <v>18</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="23" t="n">
+        <f aca="false">$P$14</f>
+        <v>25</v>
+      </c>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -3340,251 +3620,257 @@
       <c r="U26" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
-      <c r="B43" s="42" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42" t="s">
+      <c r="C43" s="44"/>
+      <c r="D43" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="41"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="44" t="s">
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="41"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="41"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="41"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="41"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="41"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="41"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
-      <c r="B50" s="47" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="41"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
-      <c r="B51" s="47" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="41"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="41"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="41"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="43"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="K24:M24"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="C48:K48"/>
@@ -3594,13 +3880,13 @@
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="C53:K53"/>
   </mergeCells>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="C44:C45 B53">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C45 B53">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+  <conditionalFormatting sqref="B13 G13 G19 G25 L19 L25 Q13">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übungen/Netzplan_Übung2.xlsx
+++ b/Übungen/Netzplan_Übung2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -2161,8 +2161,8 @@
   </sheetPr>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2396,7 +2396,10 @@
         <f aca="false">C13-C10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21" t="n">
+        <f aca="false">F10-C10</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="0"/>
       <c r="F12" s="19" t="n">
@@ -2407,7 +2410,10 @@
         <f aca="false">H13-H10</f>
         <v>0</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="21" t="n">
+        <f aca="false">K10-H10</f>
+        <v>0</v>
+      </c>
       <c r="I12" s="0"/>
       <c r="J12" s="18"/>
       <c r="K12" s="19" t="n">
@@ -2418,7 +2424,10 @@
         <f aca="false">M13-M10</f>
         <v>0</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="21" t="n">
+        <f aca="false">P10-M10</f>
+        <v>0</v>
+      </c>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="19" t="n">
@@ -2582,7 +2591,10 @@
         <f aca="false">H19-H16</f>
         <v>3</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="21" t="n">
+        <f aca="false">K10-H16</f>
+        <v>3</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -2949,7 +2961,7 @@
   </sheetPr>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
